--- a/biology/Botanique/Square_Roger-Stéphane/Square_Roger-Stéphane.xlsx
+++ b/biology/Botanique/Square_Roger-Stéphane/Square_Roger-Stéphane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Roger-St%C3%A9phane</t>
+          <t>Square_Roger-Stéphane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Roger-Stéphane (appelé square Récamier de son inauguration en 1933 au 22 octobre 2008) est un espace vert du 7e arrondissement de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Roger-St%C3%A9phane</t>
+          <t>Square_Roger-Stéphane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par le 7, rue Juliette-Récamier.
 Il est desservi par la ligne 4 à la station Saint-Sulpice et par les lignes 10 et 12 à la station Sèvres - Babylone.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Roger-St%C3%A9phane</t>
+          <t>Square_Roger-Stéphane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom du journaliste et résistant Roger Stéphane (1919-1994)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom du journaliste et résistant Roger Stéphane (1919-1994).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Roger-St%C3%A9phane</t>
+          <t>Square_Roger-Stéphane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square d'une surface de 1 438 m2 a été inauguré en 1933 sous le nom de « square Récamier » du nom de la rue qui y mène, la rue Juliette-Récamier, qui rend hommage à Juliette Récamier. La rue porte ce nom parce qu'elle s'étend sur le terrain où se trouvait autrefois le couvent de l'Abbaye-aux-Bois où Juliette Récamier s'est retirée pour terminer ses jours.
 Il est rebaptisé par le maire de Paris Bertrand Delanoë le 22 octobre 2008 à l'issue d'un long débat entre la mairie centrale et les riverains qui étaient hostiles au changement de nom et appuyés par un avis négatif (no 2007-164) du conseil d'arrondissement présidé par Michel Dumont. 
-Il n'a guère été modifié depuis, seule la perspective a été fermée par la construction d'immeubles, derrière, dans les années 1970[2].
+Il n'a guère été modifié depuis, seule la perspective a été fermée par la construction d'immeubles, derrière, dans les années 1970.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Roger-St%C3%A9phane</t>
+          <t>Square_Roger-Stéphane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Roger-Stéphane est situé au bout du cul-de-sac de la rue Juliette-Récamier, entre deux immeubles haussmanniens.
-Il se présente comme un jardin aux terrasses fleuries de lilas japonais. On y trouve une fontaine, un bassin en cascade, un immense hêtre pleureur, des plantes telles que des rhododendrons, des magnolias, des pervenches, des chèvrefeuilles, des bruyères dans une architecture vallonnée[3].
+Il se présente comme un jardin aux terrasses fleuries de lilas japonais. On y trouve une fontaine, un bassin en cascade, un immense hêtre pleureur, des plantes telles que des rhododendrons, des magnolias, des pervenches, des chèvrefeuilles, des bruyères dans une architecture vallonnée.
 </t>
         </is>
       </c>
